--- a/book_rental/management/commands/uploads/inventory_upload.xlsx
+++ b/book_rental/management/commands/uploads/inventory_upload.xlsx
@@ -11,15 +11,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Code</t>
+  </si>
   <si>
     <t>Warehouse Code</t>
   </si>
   <si>
-    <t>Book Edition Code</t>
+    <t>Book Code</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Is New</t>
+  </si>
+  <si>
+    <t>Available For Rent</t>
+  </si>
+  <si>
+    <t>Printing Type(COL, ORI, ECO)</t>
+  </si>
+  <si>
+    <t>supplier name</t>
+  </si>
+  <si>
+    <t>address line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address line 2 </t>
+  </si>
+  <si>
+    <t>address line 3</t>
+  </si>
+  <si>
+    <t>address line 4</t>
+  </si>
+  <si>
+    <t>phone 1</t>
+  </si>
+  <si>
+    <t>phone 2</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -89,6 +125,42 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/book_rental/management/commands/uploads/inventory_upload.xlsx
+++ b/book_rental/management/commands/uploads/inventory_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Code</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>W-000001</t>
+  </si>
+  <si>
+    <t>B-000024</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>Sohel1</t>
+  </si>
+  <si>
+    <t>Hajipara</t>
+  </si>
+  <si>
+    <t>Hajipara 2</t>
   </si>
 </sst>
 </file>
@@ -162,6 +180,35 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/book_rental/management/commands/uploads/inventory_upload.xlsx
+++ b/book_rental/management/commands/uploads/inventory_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Code</t>
   </si>
@@ -61,7 +61,7 @@
     <t>W-000001</t>
   </si>
   <si>
-    <t>B-000024</t>
+    <t>B-000001</t>
   </si>
   <si>
     <t>COL</t>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Hajipara 2</t>
+  </si>
+  <si>
+    <t>ORI</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
       <c r="E2" s="1">
         <v>1.0</v>
@@ -206,6 +209,35 @@
         <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
